--- a/employment_rates/IL/IL_city_data.xlsx
+++ b/employment_rates/IL/IL_city_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/Documents/GitHub/coronavirus-unemployment/employment_rates/IL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08035C27-4577-324A-875F-CDE812A39EFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A57D8EB3-D384-6C40-B58C-DF65F75D1FD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19660"/>
   </bookViews>
@@ -894,7 +894,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D15" sqref="D15"/>
-      <selection pane="bottomLeft" activeCell="I397" sqref="I397"/>
+      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12"/>
